--- a/learning row by row.xlsx
+++ b/learning row by row.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaba\Documents\GitHub\Projects_n_Algos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98B438-FDB7-4BB4-BF29-23FF7E6F0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C2777A-6B67-48E6-BB14-C0B8A1C695D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>created new branch and pull request</t>
+  </si>
+  <si>
+    <t>using github desktop</t>
+  </si>
+  <si>
+    <t>first pull request</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,16 +93,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198741</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113016</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4410074</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>2908098</xdr:rowOff>
+      <xdr:rowOff>3012873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -111,8 +125,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1456041" y="57149"/>
+          <a:off x="6018516" y="161924"/>
           <a:ext cx="4211333" cy="2850949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>102556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2831977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B73E1B6-F4A2-E396-A492-12E2D2F2545C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6008056" y="3143249"/>
+          <a:ext cx="4802819" cy="2727203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163674</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2D4076-7BAD-4770-0CC0-F6ADFBF2932F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="6241539"/>
+          <a:ext cx="6221574" cy="2836584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,12 +501,31 @@
     <col min="3" max="3" width="69.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="1">
         <v>46077</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46077</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
